--- a/logs/charts_results_files/data_ws_14.xlsx
+++ b/logs/charts_results_files/data_ws_14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCDDB1-08CA-4B81-B4B0-B1A9B6D2FDC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D362F-9F51-4999-9016-9A888B9BD88D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Propensities" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>BA</a:t>
+              <a:t>WS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2539,13 +2539,13 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>-0.76461124271651559</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>-1.4087886466135999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>-0.51055484116919603</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>-1.2306385396186399</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>-0.56479825398449401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>-0.40600011512378198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>-0.77591255979798002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>-0.90143565062708697</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>-0.47592800628015203</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>-1.0833590613521999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>-0.27246272144989903</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>-0.18625283582521701</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>-0.97761516135633797</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>-0.45369660856879501</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>-0.58047869350216796</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>-0.90247272631307296</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-0.95537003179379898</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>-0.84397061029043896</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>-1.07016204974878</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>-0.95466377363351895</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>-1.0730996811104201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>-0.93804862731202898</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>-1.0573402576429101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>-0.79439574864464202</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>-0.85540943502095601</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>-0.93030333821503897</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>-0.234137395177761</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>-0.79801387587636696</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>-0.73984764269330905</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>-0.437444907871466</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3107,13 +3107,13 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>76.389266666666657</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>76.87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>75.22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>76.048000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>75.781999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>75.602000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>76.078000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>76.977999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>76.855999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>76.581999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>76.481999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>74.995999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>76.933999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>75.117999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>76.572000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>76.974000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>77.072000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>76.507999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>76.653999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>76.150000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>77.495999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>76.468000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>76.89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>75.819999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>76.634</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>76.364000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>76.061999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>77.13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>76.512</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>77.97</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3675,14 +3675,14 @@
       <selection activeCell="B3" sqref="B3:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>2.8771713046379657</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>2.8775075075075001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>2.87546946946946</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>2.8768268268268198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2.87712512512512</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>2.8763683683683601</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>2.8766366366366301</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>2.8779739739739698</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>2.8778398398398299</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>2.87679679679679</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>2.8772772772772699</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>2.8760380380380299</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>2.8777997997997899</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>2.8757237237237199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>2.8772032032032002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>2.8778638638638601</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>2.8781601601601601</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>2.87682482482482</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>2.87771971971971</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>2.8769789789789701</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>2.8781301301301299</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>2.8771071071071002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>2.8778118118118101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>2.8766086086086</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2.8774154154154101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>2.8771631631631598</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>2.8770690690690599</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>2.8781101101101099</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>2.8771291291291199</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>2.8790130130130098</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
